--- a/output/est-activity.xlsx
+++ b/output/est-activity.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,37 +365,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sum</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Mean</t>
+          <t>Median</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Median</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>SSE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>SSE</t>
+          <t>Min</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Min</t>
+          <t>Max</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Max</t>
+          <t>Skw</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Krt</t>
         </is>
       </c>
     </row>
@@ -406,25 +411,28 @@
         </is>
       </c>
       <c r="B2">
-        <v>52408836247.98618</v>
+        <v>394882.7324290701</v>
       </c>
       <c r="C2">
-        <v>394882.7324290701</v>
+        <v>210950.7522125</v>
       </c>
       <c r="D2">
-        <v>210950.7522125</v>
+        <v>521038.6306473441</v>
       </c>
       <c r="E2">
-        <v>521038.6306473441</v>
+        <v>1430.216345929454</v>
       </c>
       <c r="F2">
-        <v>1430.216345929454</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>4744963.771666666</v>
       </c>
       <c r="H2">
-        <v>4744963.771666666</v>
+        <v>3.188457660408567</v>
+      </c>
+      <c r="I2">
+        <v>13.95463317941998</v>
       </c>
     </row>
     <row r="3">
@@ -434,25 +442,28 @@
         </is>
       </c>
       <c r="B3">
-        <v>822501648554.7047</v>
+        <v>35113629.1220417</v>
       </c>
       <c r="C3">
-        <v>35113629.1220417</v>
+        <v>5311692.632291667</v>
       </c>
       <c r="D3">
-        <v>5311692.632291667</v>
+        <v>83400656.01476976</v>
       </c>
       <c r="E3">
-        <v>83400656.01476976</v>
+        <v>544927.7656677787</v>
       </c>
       <c r="F3">
-        <v>544927.7656677787</v>
+        <v>104382.2725</v>
       </c>
       <c r="G3">
-        <v>104382.2725</v>
+        <v>729664550.2750001</v>
       </c>
       <c r="H3">
-        <v>729664550.2750001</v>
+        <v>4.614425700023507</v>
+      </c>
+      <c r="I3">
+        <v>26.38158761279508</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +473,28 @@
         </is>
       </c>
       <c r="B4">
-        <v>22291754416.2838</v>
+        <v>429612.9050316797</v>
       </c>
       <c r="C4">
-        <v>429612.9050316797</v>
+        <v>196505.5132416667</v>
       </c>
       <c r="D4">
-        <v>196505.5132416667</v>
+        <v>669280.101866823</v>
       </c>
       <c r="E4">
-        <v>669280.101866823</v>
+        <v>2938.153273206569</v>
       </c>
       <c r="F4">
-        <v>2938.153273206569</v>
+        <v>5916.362105833332</v>
       </c>
       <c r="G4">
-        <v>5916.362105833332</v>
+        <v>8011002.851666667</v>
       </c>
       <c r="H4">
-        <v>8011002.851666667</v>
+        <v>4.682455023557473</v>
+      </c>
+      <c r="I4">
+        <v>33.64120749509878</v>
       </c>
     </row>
     <row r="5">
@@ -490,25 +504,28 @@
         </is>
       </c>
       <c r="B5">
-        <v>84332673971.34021</v>
+        <v>1643527.322484803</v>
       </c>
       <c r="C5">
-        <v>1643527.322484803</v>
+        <v>877883.2527916667</v>
       </c>
       <c r="D5">
-        <v>877883.2527916667</v>
+        <v>2374891.99638894</v>
       </c>
       <c r="E5">
-        <v>2374891.99638894</v>
+        <v>10484.1781645385</v>
       </c>
       <c r="F5">
-        <v>10484.1781645385</v>
+        <v>20204.10919783333</v>
       </c>
       <c r="G5">
-        <v>20204.10919783333</v>
+        <v>31859175.24583333</v>
       </c>
       <c r="H5">
-        <v>31859175.24583333</v>
+        <v>5.383094170731106</v>
+      </c>
+      <c r="I5">
+        <v>51.24812204683636</v>
       </c>
     </row>
     <row r="6">
@@ -518,25 +535,28 @@
         </is>
       </c>
       <c r="B6">
-        <v>3849066043.663383</v>
+        <v>504332.5528909045</v>
       </c>
       <c r="C6">
-        <v>504332.5528909045</v>
+        <v>291140.1839666666</v>
       </c>
       <c r="D6">
-        <v>291140.1839666666</v>
+        <v>708346.7577809577</v>
       </c>
       <c r="E6">
-        <v>708346.7577809577</v>
+        <v>8108.242510001482</v>
       </c>
       <c r="F6">
-        <v>8108.242510001482</v>
+        <v>494.75540875</v>
       </c>
       <c r="G6">
-        <v>494.75540875</v>
+        <v>4774650.714583334</v>
       </c>
       <c r="H6">
-        <v>4774650.714583334</v>
+        <v>3.213092276506388</v>
+      </c>
+      <c r="I6">
+        <v>13.06670814867711</v>
       </c>
     </row>
     <row r="7">
@@ -546,25 +566,28 @@
         </is>
       </c>
       <c r="B7">
-        <v>8767297861.809999</v>
+        <v>18265203.87877083</v>
       </c>
       <c r="C7">
-        <v>18265203.87877083</v>
+        <v>16943807.20833333</v>
       </c>
       <c r="D7">
-        <v>16943807.20833333</v>
+        <v>13154606.02030955</v>
       </c>
       <c r="E7">
-        <v>13154606.02030955</v>
+        <v>600422.8710347334</v>
       </c>
       <c r="F7">
-        <v>600422.8710347334</v>
+        <v>532791.25</v>
       </c>
       <c r="G7">
-        <v>532791.25</v>
+        <v>51347502.5</v>
       </c>
       <c r="H7">
-        <v>51347502.5</v>
+        <v>1.179336265778688</v>
+      </c>
+      <c r="I7">
+        <v>1.191378883493424</v>
       </c>
     </row>
   </sheetData>

--- a/output/est-activity.xlsx
+++ b/output/est-activity.xlsx
@@ -411,16 +411,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>394882.7324290701</v>
+        <v>394321.9066281297</v>
       </c>
       <c r="C2">
-        <v>210950.7522125</v>
+        <v>210545.315</v>
       </c>
       <c r="D2">
-        <v>521038.6306473441</v>
+        <v>520120.2450404848</v>
       </c>
       <c r="E2">
-        <v>1430.216345929454</v>
+        <v>1648.560691584447</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -429,10 +429,10 @@
         <v>4744963.771666666</v>
       </c>
       <c r="H2">
-        <v>3.188457660408567</v>
+        <v>3.185259317466669</v>
       </c>
       <c r="I2">
-        <v>13.95463317941998</v>
+        <v>13.92241229095612</v>
       </c>
     </row>
     <row r="3">
@@ -442,16 +442,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>35113629.1220417</v>
+        <v>35114126.00071175</v>
       </c>
       <c r="C3">
         <v>5311692.632291667</v>
       </c>
       <c r="D3">
-        <v>83400656.01476976</v>
+        <v>83399865.36927709</v>
       </c>
       <c r="E3">
-        <v>544927.7656677787</v>
+        <v>629222.4192544256</v>
       </c>
       <c r="F3">
         <v>104382.2725</v>
@@ -460,10 +460,10 @@
         <v>729664550.2750001</v>
       </c>
       <c r="H3">
-        <v>4.614425700023507</v>
+        <v>4.614772333363463</v>
       </c>
       <c r="I3">
-        <v>26.38158761279508</v>
+        <v>26.38668323119444</v>
       </c>
     </row>
     <row r="4">
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>429612.9050316797</v>
+        <v>427038.8317992317</v>
       </c>
       <c r="C4">
-        <v>196505.5132416667</v>
+        <v>193869.3045833333</v>
       </c>
       <c r="D4">
-        <v>669280.101866823</v>
+        <v>667631.8847604863</v>
       </c>
       <c r="E4">
-        <v>2938.153273206569</v>
+        <v>3384.33209204437</v>
       </c>
       <c r="F4">
         <v>5916.362105833332</v>
@@ -491,10 +491,10 @@
         <v>8011002.851666667</v>
       </c>
       <c r="H4">
-        <v>4.682455023557473</v>
+        <v>4.711574043004747</v>
       </c>
       <c r="I4">
-        <v>33.64120749509878</v>
+        <v>34.12612761095448</v>
       </c>
     </row>
     <row r="5">
@@ -504,16 +504,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>1643527.322484803</v>
+        <v>1640532.534828729</v>
       </c>
       <c r="C5">
-        <v>877883.2527916667</v>
+        <v>873052.6025</v>
       </c>
       <c r="D5">
-        <v>2374891.99638894</v>
+        <v>2370372.68169583</v>
       </c>
       <c r="E5">
-        <v>10484.1781645385</v>
+        <v>12083.0488231721</v>
       </c>
       <c r="F5">
         <v>20204.10919783333</v>
@@ -522,10 +522,10 @@
         <v>31859175.24583333</v>
       </c>
       <c r="H5">
-        <v>5.383094170731106</v>
+        <v>5.391730228005201</v>
       </c>
       <c r="I5">
-        <v>51.24812204683636</v>
+        <v>51.45848125143557</v>
       </c>
     </row>
     <row r="6">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>504332.5528909045</v>
+        <v>505219.1657813253</v>
       </c>
       <c r="C6">
-        <v>291140.1839666666</v>
+        <v>294573.4575</v>
       </c>
       <c r="D6">
-        <v>708346.7577809577</v>
+        <v>709509.7852793555</v>
       </c>
       <c r="E6">
-        <v>8108.242510001482</v>
+        <v>9377.964338305546</v>
       </c>
       <c r="F6">
         <v>494.75540875</v>
@@ -553,10 +553,10 @@
         <v>4774650.714583334</v>
       </c>
       <c r="H6">
-        <v>3.213092276506388</v>
+        <v>3.203989689345186</v>
       </c>
       <c r="I6">
-        <v>13.06670814867711</v>
+        <v>12.98496130485601</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>18265203.87877083</v>
+        <v>18252808.81472222</v>
       </c>
       <c r="C7">
         <v>16943807.20833333</v>
       </c>
       <c r="D7">
-        <v>13154606.02030955</v>
+        <v>13142038.974269</v>
       </c>
       <c r="E7">
-        <v>600422.8710347334</v>
+        <v>692646.2709565501</v>
       </c>
       <c r="F7">
         <v>532791.25</v>
@@ -584,10 +584,10 @@
         <v>51347502.5</v>
       </c>
       <c r="H7">
-        <v>1.179336265778688</v>
+        <v>1.17630726596894</v>
       </c>
       <c r="I7">
-        <v>1.191378883493424</v>
+        <v>1.191262038346688</v>
       </c>
     </row>
   </sheetData>
